--- a/data/long_dif/P23_8-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_8-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>36,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,02%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>19,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,21; 48,87</t>
+          <t>25,42; 59,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 22,08</t>
+          <t>11,59; 21,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,74; 29,04</t>
+          <t>9,92; 26,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,96; 25,44</t>
+          <t>13,17; 29,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,93; 35,37</t>
+          <t>15,0; 24,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,6</t>
+          <t>17,68; 33,2</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20,8; 38,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14,57; 22,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>15,82; 27,88</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>57,84%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>58,33%</t>
+          <t>63,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>60,32%</t>
+          <t>60,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>54,59%</t>
+          <t>60,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>55,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59,06%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56,84%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>39,6; 63,88</t>
+          <t>33,61; 60,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>45,84; 65,99</t>
+          <t>46,6; 66,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,55; 65,63</t>
+          <t>51,72; 76,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>53,57; 66,62</t>
+          <t>50,97; 69,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,88; 61,4</t>
+          <t>53,89; 66,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,27; 64,5</t>
+          <t>43,05; 59,54</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>46,41; 62,51</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51,88; 64,32</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>49,46; 65,68</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>13,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,97%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,9%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>23,99%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 22,55</t>
+          <t>8,1; 21,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 39,51</t>
+          <t>18,36; 42,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 25,71</t>
+          <t>11,15; 28,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 26,03</t>
+          <t>13,72; 27,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 22,34</t>
+          <t>15,33; 25,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 29,76</t>
+          <t>17,26; 32,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 21,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 30,87</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>16,14; 28,16</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 26,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 19,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,81; 25,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 20,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,1; 18,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>62,39%</t>
+          <t>19,89%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,62%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,54%</t>
+          <t>20,61%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>66,07%</t>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15,55%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,99%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>56,56; 67,67</t>
+          <t>15,79; 25,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>60,25; 70,56</t>
+          <t>10,86; 19,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>53,46; 63,89</t>
+          <t>14,99; 25,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>61,97; 70,78</t>
+          <t>16,55; 26,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,87; 64,38</t>
+          <t>13,55; 20,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>62,58; 69,31</t>
+          <t>14,18; 22,56</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 23,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 18,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>15,77; 22,85</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>61,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>66,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>58,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>57,62%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60,34%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>66,35%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>58,13%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,53; 22,63</t>
+          <t>55,03; 68,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,89</t>
+          <t>61,74; 71,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,5; 24,32</t>
+          <t>51,06; 65,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,64; 20,55</t>
+          <t>52,82; 64,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,55; 21,69</t>
+          <t>61,82; 70,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,52</t>
+          <t>52,49; 62,99</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>55,79; 64,39</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>62,75; 69,41</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>53,32; 62,3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>20,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,94; 28,43</t>
+          <t>13,56; 26,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,23; 20,34</t>
+          <t>15,71; 23,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,15; 18,87</t>
+          <t>15,66; 29,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,04</t>
+          <t>16,25; 25,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 22,45</t>
+          <t>13,91; 21,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,68; 14,27</t>
+          <t>19,96; 29,71</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>16,49; 24,09</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>15,51; 20,9</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>19,11; 27,42</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>71,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>74,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>57,58; 71,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>67,79; 78,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>65,81; 75,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>70,99; 79,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>63,47; 71,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,21; 77,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,18; 20,46</t>
+          <t>13,44; 25,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,89; 16,02</t>
+          <t>10,44; 20,21</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,94; 18,4</t>
+          <t>8,4; 18,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>13,52; 20,03</t>
+          <t>10,53; 18,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>11,56; 17,83</t>
+          <t>5,65; 10,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,1; 17,03</t>
+          <t>10,9; 17,85</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12,77; 20,1</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>8,94; 14,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>10,56; 16,2</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>66,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>73,23%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>61,32%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>71,82%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,23%</t>
+          <t>75,1%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>66,07%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>69,32%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>74,19%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>63,79%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20,29; 28,04</t>
+          <t>59,94; 73,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,87</t>
+          <t>67,28; 78,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,33; 21,88</t>
+          <t>52,92; 67,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,82</t>
+          <t>66,44; 77,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,66</t>
+          <t>71,31; 79,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,98; 16,32</t>
+          <t>60,63; 70,61</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>64,76; 73,56</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>70,52; 77,13</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>59,14; 67,76</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>60,91%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>66,65%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>62,83%</t>
+          <t>26,27%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>61,88%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>67,32%</t>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,51%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>23,02%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>56,51; 64,9</t>
+          <t>10,08; 21,64</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>62,74; 70,1</t>
+          <t>8,88; 15,61</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>59,59; 66,19</t>
+          <t>20,49; 35,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>65,07; 70,77</t>
+          <t>10,49; 18,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>59,24; 64,72</t>
+          <t>13,54; 20,16</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>65,21; 69,53</t>
+          <t>15,7; 24,74</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 18,32</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>12,34; 17,2</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 27,45</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>18,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>12,72; 18,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,06; 22,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>15,8; 20,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>15,26; 19,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,95; 18,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,33; 20,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>28,54%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>25,19%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>20,2; 37,69</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>14,36; 28,22</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>20,38; 31,57</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>57,22%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>58,6%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>57,86%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>48,57; 66,46</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>50,72; 66,76</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>51,6; 64,0</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 20,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 27,25</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 21,35</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>23,33%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>18,77%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>14,45%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>17,95%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>14,69%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>17,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>20,06; 27,9</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 18,24</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 20,24</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 21,6</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 16,73</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 21,08</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 23,57</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>13,12; 16,63</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>15,37; 19,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>60,74%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>66,89%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>60,41%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>62,78%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>59,28%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>61,77%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>59,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>55,86; 64,63</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>63,38; 70,51</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>55,78; 65,12</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>59,34; 65,78</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>65,02; 70,69</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>55,75; 63,06</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>59,09; 64,24</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>64,79; 69,48</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>56,87; 62,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>15,93%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>22,75%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>18,45%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>22,77%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>17,2%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>12,99; 20,04</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>15,58; 22,15</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>18,93; 27,88</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>16,08; 21,07</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 20,07</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 25,99</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 19,58</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>16,15; 20,15</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>20,32; 25,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
